--- a/test/reader/dong_ying/pigs_output.xlsx
+++ b/test/reader/dong_ying/pigs_output.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,44 +453,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>182801</v>
-      </c>
-      <c r="C1" t="n">
-        <v/>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>44563</v>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Y155009合</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Y199603地</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>243857</v>
+          <t>Breed</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>confusing_note</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Birthday</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Sire</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Dam</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>reg_id</t>
+        </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>合地</t>
+          <t>Chinese_name</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>註釋</t>
         </is>
       </c>
     </row>
@@ -501,7 +509,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182806</v>
+        <v>182801</v>
       </c>
       <c r="C2" t="n">
         <v/>
@@ -516,11 +524,11 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Y199606地</t>
+          <t>Y199603地</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>243866</v>
+        <v>243857</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -529,7 +537,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -541,39 +549,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183005</v>
+        <v>182806</v>
       </c>
       <c r="C3" t="n">
         <v/>
       </c>
       <c r="D3" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>L199912仁</t>
+          <t>Y155009合</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L121204桃</t>
+          <t>Y199606地</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>244303</v>
+        <v>243866</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>仁桃</t>
+          <t>合地</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -589,7 +597,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182901</v>
+        <v>183005</v>
       </c>
       <c r="C4" t="n">
         <v/>
@@ -599,20 +607,20 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>L136408桃</t>
+          <t>L199912仁</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>L102504齊</t>
+          <t>L121204桃</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>244302</v>
+        <v>244303</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>桃齊</t>
+          <t>仁桃</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -629,11 +637,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183108</v>
+        <v>182901</v>
       </c>
       <c r="C5" t="n">
         <v/>
@@ -643,30 +651,30 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Y155806趙</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Y131806合</t>
+          <t>L136408桃</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>L102504齊</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>243864</v>
+        <v>244302</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>趙合</t>
+          <t>桃齊</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -676,10 +684,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>183105</t>
-        </is>
+      <c r="B6" t="n">
+        <v>183108</v>
       </c>
       <c r="C6" t="n">
         <v/>
@@ -698,7 +704,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>244295</v>
+        <v>243864</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -707,7 +713,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -719,12 +725,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>183001</t>
+          <t>183105</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -735,20 +741,20 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>L199912仁</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>L121204桃</t>
+          <t>Y155806趙</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Y131806合</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>244296</v>
+        <v>244295</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>仁桃</t>
+          <t>趙合</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -758,7 +764,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -770,31 +776,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>183402</t>
+          <t>183001</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v/>
       </c>
       <c r="D8" s="1" t="n">
-        <v>44568</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>L142408桃</t>
+        <v>44565</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>L199912仁</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L103002天</t>
+          <t>L121204桃</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>244294</v>
+        <v>244296</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>桃天</t>
+          <t>仁桃</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -804,7 +810,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -814,33 +820,33 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>183603</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>183402</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v/>
       </c>
       <c r="D9" s="1" t="n">
-        <v>44575</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>L136408桃</t>
+        <v>44568</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>L142408桃</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>L103902仁</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+          <t>L103002天</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>244294</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>桃仁</t>
+          <t>桃天</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -850,33 +856,33 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183901</v>
+        <v>183603</v>
       </c>
       <c r="C10" t="n">
         <v/>
       </c>
       <c r="D10" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Y158712合</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Y130704德</t>
+          <t>L136408桃</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>L103902仁</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -886,7 +892,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>合德</t>
+          <t>桃仁</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -896,7 +902,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -907,22 +913,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>184004</v>
+        <v>183901</v>
       </c>
       <c r="C11" t="n">
         <v/>
       </c>
       <c r="D11" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Y155506王</t>
+          <t>Y158712合</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Y199003地</t>
+          <t>Y130704德</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -932,7 +938,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>王地</t>
+          <t>合德</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -949,39 +955,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184811</v>
+        <v>184004</v>
       </c>
       <c r="C12" t="n">
         <v/>
       </c>
       <c r="D12" s="1" t="n">
-        <v>44602</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>L142408桃</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>L125701雲</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>243847</v>
+        <v>44584</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Y155506王</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Y199003地</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>桃雲</t>
+          <t>王地</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -996,10 +1004,8 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>184703</t>
-        </is>
+      <c r="B13" t="n">
+        <v>184811</v>
       </c>
       <c r="C13" t="n">
         <v/>
@@ -1014,20 +1020,20 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>L127506仁</t>
+          <t>L125701雲</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>244297</v>
+        <v>243847</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>桃仁</t>
+          <t>桃雲</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1039,34 +1045,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>184901</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>184703</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v/>
       </c>
       <c r="D14" s="1" t="n">
-        <v>44606</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Y139306王</t>
+        <v>44602</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>L142408桃</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Y187504地</t>
+          <t>L127506仁</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>244301</v>
+        <v>244297</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>王地</t>
+          <t>桃仁</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1076,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -1086,33 +1094,31 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>185403</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>有問題</t>
-        </is>
+      <c r="B15" t="n">
+        <v>184901</v>
+      </c>
+      <c r="C15" t="n">
+        <v/>
       </c>
       <c r="D15" s="1" t="n">
-        <v>44609</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Y121005地</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Y146101趙</t>
+        <v>44606</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Y139306王</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Y187504地</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>244310</v>
+        <v>244301</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>地趙</t>
+          <t>王地</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1122,41 +1128,43 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['不允許有相近耳號']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>184706</v>
-      </c>
-      <c r="C16" t="n">
-        <v/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>185403</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>有問題</t>
+        </is>
       </c>
       <c r="D16" s="1" t="n">
-        <v>44612</v>
+        <v>44609</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>L142408桃</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>L127506仁</t>
+          <t>Y121005地</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Y146101趙</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>244307</v>
+        <v>244310</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>桃仁</t>
+          <t>地趙</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1166,7 +1174,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['不允許有相近耳號']</t>
         </is>
       </c>
     </row>
@@ -1177,32 +1185,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185703</v>
+        <v>184706</v>
       </c>
       <c r="C17" t="n">
         <v/>
       </c>
       <c r="D17" s="1" t="n">
-        <v>44618</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>L163603傑</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>L117702愛</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+        <v>44612</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>L142408桃</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>L127506仁</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>244307</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>無登</t>
+          <t>桃仁</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1223,7 +1229,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>185708</v>
+        <v>185703</v>
       </c>
       <c r="C18" t="n">
         <v/>
@@ -1233,7 +1239,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>L163606傑</t>
+          <t>L163603傑</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1248,12 +1254,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>傑愛</t>
+          <t>無登</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1265,23 +1271,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185802</v>
+        <v>185708</v>
       </c>
       <c r="C19" t="n">
         <v/>
       </c>
       <c r="D19" s="1" t="n">
-        <v>44620</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v/>
+        <v>44618</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>L163606傑</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L117702愛</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1290,17 +1300,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>無登</t>
+          <t>傑愛</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['{field} 不能為空值', '{field} 不能為空值', '父畜品種不在常見名單內', '母畜品種不在常見名單內']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -1311,30 +1321,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>186901</v>
+        <v>185802</v>
       </c>
       <c r="C20" t="n">
         <v/>
       </c>
       <c r="D20" s="1" t="n">
-        <v>44622</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Y143405趙</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Y133501地</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>244306</v>
+        <v>44620</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>趙地</t>
+          <t>無登</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1344,7 +1352,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['Sire 不能為空值', 'Dam 不能為空值', '父畜品種不在常見名單內', '母畜品種不在常見名單內']</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1363,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>185905</v>
+        <v>186901</v>
       </c>
       <c r="C21" t="n">
         <v/>
@@ -1365,25 +1373,25 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Y139306王</t>
+          <t>Y143405趙</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Y106703德</t>
+          <t>Y133501地</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>244332</v>
+        <v>244306</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>王德</t>
+          <t>趙地</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1398,10 +1406,8 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>185904</t>
-        </is>
+      <c r="B22" t="n">
+        <v>185905</v>
       </c>
       <c r="C22" t="n">
         <v/>
@@ -1419,10 +1425,8 @@
           <t>Y106703德</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+      <c r="G22" t="n">
+        <v>244332</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1431,7 +1435,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1443,34 +1447,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>186203</v>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>185904</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v/>
       </c>
       <c r="D23" s="1" t="n">
-        <v>44628</v>
+        <v>44622</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>L117009桃</t>
+          <t>Y139306王</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>L136803傑</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>244299</v>
+          <t>Y106703德</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>桃傑</t>
+          <t>王德</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1491,32 +1499,30 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>186601</v>
+        <v>186203</v>
       </c>
       <c r="C24" t="n">
         <v/>
       </c>
       <c r="D24" s="1" t="n">
-        <v>44635</v>
+        <v>44628</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>L199103傑</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>L102504齊</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+          <t>L117009桃</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>L136803傑</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>244299</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>仁齊</t>
+          <t>桃傑</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1526,33 +1532,33 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187304</v>
+        <v>186601</v>
       </c>
       <c r="C25" t="n">
         <v/>
       </c>
       <c r="D25" s="1" t="n">
-        <v>44650</v>
+        <v>44635</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Y147405金</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Y126101地</t>
+          <t>L199103傑</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>L102504齊</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1562,7 +1568,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>金地</t>
+          <t>仁齊</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1572,7 +1578,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -1583,22 +1589,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187601</v>
+        <v>187304</v>
       </c>
       <c r="C26" t="n">
         <v/>
       </c>
       <c r="D26" s="1" t="n">
-        <v>44657</v>
+        <v>44650</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Y143405趙</t>
+          <t>Y147405金</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Y102803王</t>
+          <t>Y126101地</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1608,7 +1614,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>趙王</t>
+          <t>金地</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1625,33 +1631,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>188003</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>L?</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>187601</v>
+      </c>
+      <c r="C27" t="n">
+        <v/>
       </c>
       <c r="D27" s="1" t="n">
-        <v>44665</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v/>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v/>
+        <v>44657</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Y143405趙</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Y102803王</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>無登</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>趙王</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1660,53 +1670,49 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['{field} 不能為空值', '{field} 不能為空值', '{field} 不能為空值', '父畜品種不在常見名單內', '母畜品種不在常見名單內', '不允許有相近耳號']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>188305</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>188003</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>L?</t>
+        </is>
       </c>
       <c r="D28" s="1" t="n">
-        <v>44670</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Y155009合</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Y109303地</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>244336</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>合地</t>
-        </is>
+        <v>44665</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v/>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['Chinese_name 不能為空值', 'Sire 不能為空值', 'Dam 不能為空值', '父畜品種不在常見名單內', '母畜品種不在常見名單內', '不允許有相近耳號']</t>
         </is>
       </c>
     </row>
@@ -1716,8 +1722,10 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>166315</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>188305</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v/>
@@ -1736,7 +1744,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>244335</v>
+        <v>244336</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1761,7 +1769,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>188303</v>
+        <v>166315</v>
       </c>
       <c r="C30" t="n">
         <v/>
@@ -1779,10 +1787,8 @@
           <t>Y109303地</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+      <c r="G30" t="n">
+        <v>244335</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1791,7 +1797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1807,22 +1813,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188704</v>
+        <v>188303</v>
       </c>
       <c r="C31" t="n">
         <v/>
       </c>
       <c r="D31" s="1" t="n">
-        <v>44671</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Y121005地</t>
+        <v>44670</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Y155009合</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>Y111701趙</t>
+          <t>Y109303地</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1832,7 +1838,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>地趙</t>
+          <t>合地</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1842,33 +1848,33 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>189303</v>
+        <v>188704</v>
       </c>
       <c r="C32" t="n">
         <v/>
       </c>
       <c r="D32" s="1" t="n">
-        <v>44693</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>L163603傑</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>L141702燕</t>
+        <v>44671</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Y121005地</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Y111701趙</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1878,7 +1884,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>傑燕</t>
+          <t>地趙</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1899,22 +1905,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>189702</v>
+        <v>189303</v>
       </c>
       <c r="C33" t="n">
         <v/>
       </c>
       <c r="D33" s="1" t="n">
-        <v>44698</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>L162314燕</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>L142301齊</t>
+        <v>44693</v>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>L163603傑</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L141702燕</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1924,7 +1930,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>燕齊</t>
+          <t>傑燕</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1941,11 +1947,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189505</v>
+        <v>189702</v>
       </c>
       <c r="C34" t="n">
         <v/>
@@ -1953,14 +1959,14 @@
       <c r="D34" s="1" t="n">
         <v>44698</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>Y158712合</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Y133804金</t>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>L162314燕</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>L142301齊</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1970,7 +1976,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>合金</t>
+          <t>燕齊</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1987,11 +1993,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189604</v>
+        <v>189505</v>
       </c>
       <c r="C35" t="n">
         <v/>
@@ -2001,30 +2007,32 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>L005310愛</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>L120402傑</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>244333</v>
+          <t>Y158712合</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Y133804金</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>愛傑</t>
+          <t>合金</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -2035,53 +2043,51 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>190202</v>
+        <v>189604</v>
       </c>
       <c r="C36" t="n">
         <v/>
       </c>
       <c r="D36" s="1" t="n">
-        <v>44705</v>
+        <v>44698</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Y155009合</t>
+          <t>L005310愛</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>Y126104地</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>????</t>
-        </is>
+          <t>L120402傑</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>244333</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>????</t>
+          <t>愛傑</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['登錄號不能含有非數字字元 ', '親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>190201</v>
+        <v>190202</v>
       </c>
       <c r="C37" t="n">
         <v/>
@@ -2099,14 +2105,14 @@
           <t>Y126104地</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>無登</t>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>????</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>合地</t>
+          <t>????</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2116,33 +2122,33 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['登錄號不能含有非數字字元 ', '親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>191201</v>
+        <v>190201</v>
       </c>
       <c r="C38" t="n">
         <v/>
       </c>
       <c r="D38" s="1" t="n">
-        <v>44719</v>
+        <v>44705</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>L199912仁</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>L122005桃</t>
+          <t>Y155009合</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Y126104地</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2152,7 +2158,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>仁桃</t>
+          <t>合地</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2162,33 +2168,33 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>191309</v>
+        <v>191201</v>
       </c>
       <c r="C39" t="n">
         <v/>
       </c>
       <c r="D39" s="1" t="n">
-        <v>44720</v>
+        <v>44719</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Y147405金</t>
+          <t>L199912仁</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Y101007王</t>
+          <t>L122005桃</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2198,12 +2204,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>金王</t>
+          <t>仁桃</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2215,26 +2221,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>191502</v>
+        <v>191309</v>
       </c>
       <c r="C40" t="n">
         <v/>
       </c>
       <c r="D40" s="1" t="n">
-        <v>44721</v>
+        <v>44720</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>L199103傑</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>L178501燕</t>
+          <t>Y147405金</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Y101007王</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2244,45 +2250,43 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>傑燕</t>
+          <t>金王</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>192503</t>
-        </is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>191502</v>
       </c>
       <c r="C41" t="n">
         <v/>
       </c>
       <c r="D41" s="1" t="n">
-        <v>44742</v>
+        <v>44721</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Y162109趙</t>
+          <t>L199103傑</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>Y191703金</t>
+          <t>L178501燕</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2292,7 +2296,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>趙金</t>
+          <t>傑燕</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2309,26 +2313,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>192802</v>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>192503</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v/>
       </c>
       <c r="D42" s="1" t="n">
-        <v>44744</v>
+        <v>44742</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Y155806趙</t>
+          <t>Y162109趙</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>Y142402地</t>
+          <t>Y191703金</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2338,7 +2344,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>桃齊</t>
+          <t>趙金</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2359,22 +2365,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>193008</v>
+        <v>192802</v>
       </c>
       <c r="C43" t="n">
         <v/>
       </c>
       <c r="D43" s="1" t="n">
-        <v>44747</v>
+        <v>44744</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>L163603傑</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>L185908齊</t>
+          <t>Y155806趙</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Y142402地</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2384,7 +2390,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>傑齊</t>
+          <t>桃齊</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2394,18 +2400,18 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193106</v>
+        <v>193008</v>
       </c>
       <c r="C44" t="n">
         <v/>
@@ -2415,12 +2421,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Y155009合</t>
+          <t>L163603傑</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Y142506趙</t>
+          <t>L185908齊</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2430,12 +2436,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>合趙</t>
+          <t>傑齊</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2447,11 +2453,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193001</v>
+        <v>193106</v>
       </c>
       <c r="C45" t="n">
         <v/>
@@ -2461,12 +2467,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>L163603傑</t>
+          <t>Y155009合</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>L185908齊</t>
+          <t>Y142506趙</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2476,12 +2482,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>傑齊</t>
+          <t>合趙</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2496,10 +2502,8 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>193001</t>
-        </is>
+      <c r="B46" t="n">
+        <v>193001</v>
       </c>
       <c r="C46" t="n">
         <v/>
@@ -2541,12 +2545,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>193102</t>
+          <t>193001</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2557,12 +2561,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Y155009合</t>
+          <t>L163603傑</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Y142506趙</t>
+          <t>L185908齊</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2572,7 +2576,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>合趙</t>
+          <t>傑齊</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2592,23 +2596,25 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>193804</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>193102</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v/>
       </c>
       <c r="D48" s="1" t="n">
-        <v>44756</v>
+        <v>44747</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Y147405金</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Y190602王</t>
+          <t>Y155009合</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Y142506趙</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2618,7 +2624,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>金王</t>
+          <t>合趙</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2628,7 +2634,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2655,7 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Y14745金</t>
+          <t>Y147405金</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
@@ -2691,11 +2697,11 @@
         <v/>
       </c>
       <c r="D50" s="1" t="n">
-        <v>44759</v>
+        <v>44756</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Y147405金</t>
+          <t>Y14745金</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
@@ -2727,28 +2733,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>193903</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>193804</v>
       </c>
       <c r="C51" t="n">
         <v/>
       </c>
       <c r="D51" s="1" t="n">
-        <v>44762</v>
+        <v>44759</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>L163603傑</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>L142203桃</t>
+          <t>Y147405金</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Y190602王</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2758,7 +2762,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>傑桃</t>
+          <t>金王</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2768,35 +2772,35 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>194908</t>
+          <t>193903</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v/>
       </c>
       <c r="D52" s="1" t="n">
-        <v>44776</v>
+        <v>44762</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Y147510王</t>
+          <t>L163603傑</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Y106703德</t>
+          <t>L142203桃</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2806,7 +2810,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>王德</t>
+          <t>傑桃</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2823,26 +2827,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>195203</v>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>194908</t>
+        </is>
       </c>
       <c r="C53" t="n">
         <v/>
       </c>
       <c r="D53" s="1" t="n">
-        <v>44782</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>L149412傑</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>L129506仁</t>
+        <v>44776</v>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Y147510王</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Y106703德</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2852,7 +2858,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>傑仁</t>
+          <t>王德</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2872,10 +2878,8 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>195203</t>
-        </is>
+      <c r="B54" t="n">
+        <v>195203</v>
       </c>
       <c r="C54" t="n">
         <v/>
@@ -2917,26 +2921,28 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>195308</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>195203</t>
+        </is>
       </c>
       <c r="C55" t="n">
         <v/>
       </c>
       <c r="D55" s="1" t="n">
-        <v>44790</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>Y155009合</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Y133501地</t>
+        <v>44782</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>L149412傑</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>L129506仁</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2946,7 +2952,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>合地</t>
+          <t>傑仁</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2963,28 +2969,26 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>195604</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>195308</v>
       </c>
       <c r="C56" t="n">
         <v/>
       </c>
       <c r="D56" s="1" t="n">
-        <v>44796</v>
+        <v>44790</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>L158010齊</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>L126601楚</t>
+          <t>Y155009合</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Y133501地</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2994,7 +2998,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>齊楚</t>
+          <t>合地</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3004,7 +3008,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -3014,23 +3018,25 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>195803</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>195604</t>
+        </is>
       </c>
       <c r="C57" t="n">
         <v/>
       </c>
       <c r="D57" s="1" t="n">
-        <v>44798</v>
+        <v>44796</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>L166209燕</t>
+          <t>L158010齊</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>L115507仁</t>
+          <t>L126601楚</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3040,7 +3046,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>燕仁</t>
+          <t>齊楚</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3057,7 +3063,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3086,7 +3092,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>合地</t>
+          <t>燕仁</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3103,28 +3109,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>196803</t>
-        </is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>195803</v>
       </c>
       <c r="C59" t="n">
         <v/>
       </c>
       <c r="D59" s="1" t="n">
-        <v>44805</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>L145710桃</t>
+        <v>44798</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>L166209燕</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>L195501仁</t>
+          <t>L115507仁</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3134,7 +3138,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>桃仁</t>
+          <t>合地</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3144,35 +3148,35 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>197208</t>
+          <t>196803</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v/>
       </c>
       <c r="D60" s="1" t="n">
-        <v>44818</v>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>Y147510王</t>
+        <v>44805</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>L145710桃</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>Y109303地</t>
+          <t>L195501仁</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3182,7 +3186,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>王地</t>
+          <t>桃仁</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3192,33 +3196,35 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
+          <t>['親代不在資料庫中']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>197807</v>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>197208</t>
+        </is>
       </c>
       <c r="C61" t="n">
         <v/>
       </c>
       <c r="D61" s="1" t="n">
-        <v>44824</v>
+        <v>44818</v>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>L163810燕</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>L122006桃</t>
+          <t>Y147510王</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Y109303地</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3228,7 +3234,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>燕桃</t>
+          <t>王地</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3238,7 +3244,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['親代不在資料庫中']</t>
+          <t>['親代不在資料庫中', '親代不在資料庫中']</t>
         </is>
       </c>
     </row>
@@ -3291,39 +3297,41 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>187305</v>
+        <v>197807</v>
       </c>
       <c r="C63" t="n">
         <v/>
       </c>
       <c r="D63" s="1" t="n">
-        <v>45015</v>
+        <v>44824</v>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Y147405金</t>
+          <t>L163810燕</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Y126101地</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>244334</v>
+          <t>L122006桃</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>金地</t>
+          <t>燕桃</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>公</t>
+          <t>母</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3335,41 +3343,39 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>193903</v>
+        <v>187305</v>
       </c>
       <c r="C64" t="n">
         <v/>
       </c>
       <c r="D64" s="1" t="n">
-        <v>45127</v>
+        <v>45015</v>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>L163603傑</t>
+          <t>Y147405金</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>L142203桃</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>無登</t>
-        </is>
+          <t>Y126101地</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>244334</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>傑桃</t>
+          <t>金地</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>母</t>
+          <t>公</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3381,42 +3387,88 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>193903</v>
+      </c>
+      <c r="C65" t="n">
+        <v/>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>45127</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>L163603傑</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>L142203桃</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>無登</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>傑桃</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>母</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['親代不在資料庫中']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B66" s="2" t="n">
         <v>137105</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C66" t="n">
         <v>137108</v>
       </c>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" t="inlineStr">
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Y195207王</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Y182001趙</t>
         </is>
       </c>
-      <c r="G65" t="n">
+      <c r="G66" t="n">
         <v>238789</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>王趙</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>母</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>['{field} 不能為空值', '需要有子代的生日才能設定親代', '需要有子代的生日才能設定親代', '不允許有相近耳號']</t>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>母</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Birthday 不能為空值', '需要有子代的生日才能設定親代', '需要有子代的生日才能設定親代', '不允許有相近耳號']</t>
         </is>
       </c>
     </row>
